--- a/TestData/address.xlsx
+++ b/TestData/address.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
@@ -435,7 +435,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,13 +483,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -553,7 +553,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>

--- a/TestData/address.xlsx
+++ b/TestData/address.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10409"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F158D4FB-1722-8E42-8CBA-9E84B083D826}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="13880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,7 +86,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,6 +222,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -256,6 +274,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -431,25 +466,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="10.85546875" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
-    <col min="4" max="4" width="31.42578125" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5" customWidth="1"/>
+    <col min="7" max="7" width="14.5" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="26.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -481,13 +516,13 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -519,7 +554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -551,7 +586,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -585,9 +620,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1"/>
-    <hyperlink ref="D3" r:id="rId2" display="nhl@gmail.com"/>
-    <hyperlink ref="D4" r:id="rId3"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" display="nhl@gmail.com" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
